--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F00C41-95C2-4A5D-B68A-25D681AB10F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Key</t>
   </si>
@@ -28,22 +41,28 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Browser2</t>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>DB_Region</t>
+  </si>
+  <si>
+    <t>CurrentEnv</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Mozilla Firefox</t>
-  </si>
-  <si>
     <t>https://demo.guru99.com/test/upload/</t>
+  </si>
+  <si>
+    <t>postgres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,6 +235,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -251,6 +287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +502,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,19 +513,41 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{B01F7B92-043D-4E3A-AE36-B33ABDBBCD0A}">
+      <formula1>"SIT, UAT, PERF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{14CE3BB6-463C-4B94-831C-87ADA642DE8F}">
+      <formula1>"Chrome, Firefox"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{F2854EBD-DEE0-4CF1-8E6B-1BEFEEEE1D9D}">
+      <formula1>"postgres, postgres2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{5DE259F5-76CD-41E4-9758-0A8CEC478211}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F00C41-95C2-4A5D-B68A-25D681AB10F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE72F9C-36ED-4C30-B760-C28DAB39654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Key</t>
   </si>
@@ -57,6 +58,24 @@
   </si>
   <si>
     <t>postgres</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>Rati@177b</t>
+  </si>
+  <si>
+    <t>ratika</t>
+  </si>
+  <si>
+    <t>prateek</t>
+  </si>
+  <si>
+    <t>pankaj</t>
+  </si>
+  <si>
+    <t>ritik</t>
   </si>
 </sst>
 </file>
@@ -135,12 +154,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -550,4 +570,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F06E63-44B5-418D-92F7-E0F1BBC68319}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{FA4633F9-F709-480E-8719-2C026C79C066}"/>
+    <hyperlink ref="B2:B5" r:id="rId2" display="Rati@177b" xr:uid="{13A3F15D-9A7F-4F12-A715-36205FAA8925}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>